--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,234 +435,24 @@
           <t>Username</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>575148251</v>
+        <v>5801253291</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
+          <t>itboostuz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>575148251</v>
+        <v>5801253291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>575148251</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>575148251</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>575148251</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>575148251</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>575148251</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>575148251</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>fathullalatipov</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>+998977262700</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>305896408</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Medical_Ninja</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>998911633560</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5801253291</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>itboostuz</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>+998951234400</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>305896408</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Medical_Ninja</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>+998911633560</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>305896408</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Medical_Ninja</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>+998911633560</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5801253291</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>itboostuz</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>998951234400</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>697116357</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>albert_vilevich</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>+79811278656</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>697116357</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>albert_vilevich</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>+79811278656</t>
         </is>
       </c>
     </row>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,11 +448,101 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>697116357</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>albert_vilevich</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>5801253291</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>itboostuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5801253291</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>itboostuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5655340751</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>archi_xci</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5655340751</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>archi_xci</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5801253291</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>itboostuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>697116357</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>albert_vilevich</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>697116357</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>albert_vilevich</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>697116357</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>albert_vilevich</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>697116357</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>albert_vilevich</t>
         </is>
       </c>
     </row>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,16 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5801253291</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>itboostuz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,56 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>575148251</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fathullalatipov</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>575148251</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>fathullalatipov</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>575148251</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>fathullalatipov</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>575148251</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>fathullalatipov</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>575148251</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>fathullalatipov</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
